--- a/data/output/BG Perf_Wk 2023025.xlsx
+++ b/data/output/BG Perf_Wk 2023025.xlsx
@@ -828,7 +828,7 @@
         <v>873.3892523302055</v>
       </c>
       <c r="AE4" t="n">
-        <v>834.7299440730505</v>
+        <v>834.7299440730504</v>
       </c>
       <c r="AF4" t="n">
         <v>856.5297286684802</v>
@@ -846,10 +846,10 @@
         <v>836.2707620479621</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>122.2221317211154</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>117.8457053925173</v>
       </c>
     </row>
     <row r="5">
@@ -942,25 +942,25 @@
         <v>1774.146578249349</v>
       </c>
       <c r="AC5" t="n">
-        <v>1363.9112155425</v>
+        <v>1363.9139937625</v>
       </c>
       <c r="AD5" t="n">
         <v>1421.009092698139</v>
       </c>
       <c r="AE5" t="n">
-        <v>1363.1644124398</v>
+        <v>1363.1661096398</v>
       </c>
       <c r="AF5" t="n">
         <v>1406.48802013241</v>
       </c>
       <c r="AG5" t="n">
-        <v>1368.4616745868</v>
+        <v>1368.4624315868</v>
       </c>
       <c r="AH5" t="n">
         <v>1421.05652179609</v>
       </c>
       <c r="AI5" t="n">
-        <v>1676.5991245659</v>
+        <v>1674.8886700459</v>
       </c>
       <c r="AJ5" t="n">
         <v>1728.768404891002</v>
@@ -1062,25 +1062,25 @@
         <v>483.033164001951</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.4093131518329</v>
+        <v>196.4093131518327</v>
       </c>
       <c r="AD6" t="n">
         <v>208.941630563562</v>
       </c>
       <c r="AE6" t="n">
-        <v>319.9413325904611</v>
+        <v>319.9413325904609</v>
       </c>
       <c r="AF6" t="n">
         <v>332.5760920601386</v>
       </c>
       <c r="AG6" t="n">
-        <v>313.9265448155654</v>
+        <v>313.9265448155653</v>
       </c>
       <c r="AH6" t="n">
         <v>337.4491273426455</v>
       </c>
       <c r="AI6" t="n">
-        <v>441.8304522254895</v>
+        <v>441.836588623363</v>
       </c>
       <c r="AJ6" t="n">
         <v>477.8610276876117</v>
@@ -1182,25 +1182,25 @@
         <v>74.40398460532771</v>
       </c>
       <c r="AC7" t="n">
-        <v>168.2951278500001</v>
+        <v>168.2951278500002</v>
       </c>
       <c r="AD7" t="n">
         <v>195.3958100426649</v>
       </c>
       <c r="AE7" t="n">
-        <v>47.35380306000001</v>
+        <v>47.35380306000002</v>
       </c>
       <c r="AF7" t="n">
         <v>53.2534934779482</v>
       </c>
       <c r="AG7" t="n">
-        <v>54.55006627000001</v>
+        <v>54.55006626999999</v>
       </c>
       <c r="AH7" t="n">
         <v>62.4470488081905</v>
       </c>
       <c r="AI7" t="n">
-        <v>75.25318657999996</v>
+        <v>75.27925657999997</v>
       </c>
       <c r="AJ7" t="n">
         <v>85.92025836604319</v>

--- a/data/output/BG Perf_Wk 2023025.xlsx
+++ b/data/output/BG Perf_Wk 2023025.xlsx
@@ -828,7 +828,7 @@
         <v>873.3892523302055</v>
       </c>
       <c r="AE4" t="n">
-        <v>834.7299440730504</v>
+        <v>834.7299440730505</v>
       </c>
       <c r="AF4" t="n">
         <v>856.5297286684802</v>
@@ -846,10 +846,10 @@
         <v>836.2707620479621</v>
       </c>
       <c r="AK4" t="n">
-        <v>122.2221317211154</v>
+        <v>242.2086713990759</v>
       </c>
       <c r="AL4" t="n">
-        <v>117.8457053925173</v>
+        <v>239.2378949812236</v>
       </c>
     </row>
     <row r="5">
@@ -942,25 +942,25 @@
         <v>1774.146578249349</v>
       </c>
       <c r="AC5" t="n">
-        <v>1363.9139937625</v>
+        <v>1363.8870510825</v>
       </c>
       <c r="AD5" t="n">
         <v>1421.009092698139</v>
       </c>
       <c r="AE5" t="n">
-        <v>1363.1661096398</v>
+        <v>1363.1352005898</v>
       </c>
       <c r="AF5" t="n">
         <v>1406.48802013241</v>
       </c>
       <c r="AG5" t="n">
-        <v>1368.4624315868</v>
+        <v>1368.4381889568</v>
       </c>
       <c r="AH5" t="n">
         <v>1421.05652179609</v>
       </c>
       <c r="AI5" t="n">
-        <v>1674.8886700459</v>
+        <v>1674.7500882159</v>
       </c>
       <c r="AJ5" t="n">
         <v>1728.768404891002</v>
